--- a/biology/Botanique/Lythrum_virgatum/Lythrum_virgatum.xlsx
+++ b/biology/Botanique/Lythrum_virgatum/Lythrum_virgatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salicaire à baguette, Lythrum en forme de baguette
-Lythrum virgatum est une plante de la famille des Lythracées. Elle est originaire du paléarctique, présente du Centre Est et du Sud-Est de l'Europe à la SIbérie et au Nord de la Chine, dans des milieux humides[2].
-Il en existe différents cultivars, et elle a été introduite en France (dans l'arrière-pays niçois[3], en Allemagne et aux États-Unis. Dans ce dernier pays, où elle a été introduite dès le début du XIXe siècle, elle est considérée comme plante envahissante prenant la place d'espèces locales[4]. 
+Lythrum virgatum est une plante de la famille des Lythracées. Elle est originaire du paléarctique, présente du Centre Est et du Sud-Est de l'Europe à la SIbérie et au Nord de la Chine, dans des milieux humides.
+Il en existe différents cultivars, et elle a été introduite en France (dans l'arrière-pays niçois, en Allemagne et aux États-Unis. Dans ce dernier pays, où elle a été introduite dès le début du XIXe siècle, elle est considérée comme plante envahissante prenant la place d'espèces locales. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a une tige dressée, de section carrée, lisse ou pileuses. Les feuilles sont étroites et allongées, et mesurent de 5 à 12 cm de long, à base arrondie ou en forme de cœur. Chaque plant peut porter jusqu'à une trentaine de hampes florales, longues de 50 à 100 cm. Les fleurs sont groupées, longue chacune de 15 à 20 mm, à 5 ou 7 pétales. La floraison s'étend d'avril à août. Les fruits sont de petites capsules de 6 mm de long, qui peuvent contenir plus d'une centaine de petites graines. Ainsi, une seule plante peut produire plusieurs millions de graines[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a une tige dressée, de section carrée, lisse ou pileuses. Les feuilles sont étroites et allongées, et mesurent de 5 à 12 cm de long, à base arrondie ou en forme de cœur. Chaque plant peut porter jusqu'à une trentaine de hampes florales, longues de 50 à 100 cm. Les fleurs sont groupées, longue chacune de 15 à 20 mm, à 5 ou 7 pétales. La floraison s'étend d'avril à août. Les fruits sont de petites capsules de 6 mm de long, qui peuvent contenir plus d'une centaine de petites graines. Ainsi, une seule plante peut produire plusieurs millions de graines. 
 </t>
         </is>
       </c>
